--- a/Sprint Backlogs_FYP.xlsx
+++ b/Sprint Backlogs_FYP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub Clone\Final-Year-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5875012-BE0D-4FBC-A3A5-C1CCF55F43FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5356028-7F4E-462A-AF6C-6EC8A554405E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="12800" windowHeight="7450" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Oct" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>Week</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>Updated report sections with fraud case collection and simulator design; coordinated team progress. https://github.com/kaustpradalab/Fraud-R1</t>
-  </si>
-  <si>
-    <t>Continue editing methodology and results sections; integrate supervisor feedback; oversee task execution. Continue studying RAG basics.</t>
   </si>
   <si>
     <t>TAN Xiuhao</t>
@@ -103,53 +100,224 @@
     <t>Week 2(Oct 19th - Oct 25th)</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Finalized methodology section in FYP report; integrated supervisor feedback; coordinated team progress.</t>
-  </si>
-  <si>
-    <t>Continue editing results and discussion sections; prepare mid-sprint progress summary.</t>
-  </si>
-  <si>
     <t>https://www.kaggle.com/datasets/shivamb/real-or-fake-fake-jobposting-prediction/data
 https://www.kaggle.com/datasets/srisaisuhassanisetty/fake-job-postings</t>
   </si>
   <si>
-    <t>Week 3(Oct 26th - Nov 1th)</t>
-  </si>
-  <si>
-    <t>Summarized fraud case dataset; highlighted patterns for simulator training.</t>
-  </si>
-  <si>
-    <t>Dataset now categorized by type of fraud.</t>
-  </si>
-  <si>
-    <t>Drafted research notes on RAG applications in fraud detection.</t>
-  </si>
-  <si>
-    <t>Collected references on RAG + LLM use cases.</t>
-  </si>
-  <si>
-    <t>Edited results section of FYP report; compiled team’s Week 2 outputs into documentation.</t>
-  </si>
-  <si>
-    <t>Updated report with dataset structure and simulator improvements.</t>
-  </si>
-  <si>
-    <t>Draft discussion and conclusion sections; prepare slides for progress presentation.</t>
-  </si>
-  <si>
     <t>Member</t>
   </si>
   <si>
     <t>Task</t>
   </si>
   <si>
-    <t>Organized collected fraud cases into structured dataset for simulator testing.</t>
-  </si>
-  <si>
-    <t>Notes from Fraud-R1 repo and online resources.</t>
+    <t xml:space="preserve"> Continue editing methodology/results; integrate supervisor feedback; oversee team execution; deepen RAG study.</t>
+  </si>
+  <si>
+    <t>Strengthened methodology with academic references.</t>
+  </si>
+  <si>
+    <t>Week 3(Oct 26th - Nov 1st)</t>
+  </si>
+  <si>
+    <t>Expand literature review; integrate into report.</t>
+  </si>
+  <si>
+    <t>Collected academic sources on RAG + LLM use cases.</t>
+  </si>
+  <si>
+    <t>Dataset categorized by fraud type.</t>
+  </si>
+  <si>
+    <t>Consolidated team contributions into report.</t>
+  </si>
+  <si>
+    <t>Week 4(Nov 2nd - Nov 8th)</t>
+  </si>
+  <si>
+    <t>Week 5(Nov 9th - Nov 15th)</t>
+  </si>
+  <si>
+    <t>Week 6(Nov 16th - Nov 22nd)</t>
+  </si>
+  <si>
+    <t>Begin drafting literature review section in FYP report.</t>
+  </si>
+  <si>
+    <t>Refine discussion/conclusion; integrate supervisor feedback.</t>
+  </si>
+  <si>
+    <t>Fraud datasets cleaned and structured for analysis.</t>
+  </si>
+  <si>
+    <t>Explored fraud datasets (Kaggle, official alerts); validated preprocessing pipeline for detection tasks.</t>
+  </si>
+  <si>
+    <t>Refined fraud dataset summaries; prepared draft tables for report inclusion.</t>
+  </si>
+  <si>
+    <t>Dataset tables categorized by fraud type.</t>
+  </si>
+  <si>
+    <t>Literature review section ready for supervisor review.</t>
+  </si>
+  <si>
+    <t>Revise literature review based on feedback; assist in discussion drafting.</t>
+  </si>
+  <si>
+    <t>Report aligned with APA style and examiner expectations.</t>
+  </si>
+  <si>
+    <t>Enhanced dataset exploration; improved preprocessing pipeline for fraud detection tasks.</t>
+  </si>
+  <si>
+    <t>Fraud detection pipeline outputs more consistent results.</t>
+  </si>
+  <si>
+    <t>Assist in preparing final sprint summary.</t>
+  </si>
+  <si>
+    <t>Revised literature review; integrated supervisor feedback; polished citations.</t>
+  </si>
+  <si>
+    <t>Literature review finalized with APA references.</t>
+  </si>
+  <si>
+    <t>Support conclusion drafting; prepare oral presentation notes.</t>
+  </si>
+  <si>
+    <t>Prepare final sprint presentation; oversee submission readiness.</t>
+  </si>
+  <si>
+    <t>Deepen understanding of RAG integration; assist in preparing learning notes for team.</t>
+  </si>
+  <si>
+    <t>Notes compiled on dataset structures and RAG learning resources.</t>
+  </si>
+  <si>
+    <t>Continued studying fraud detection datasets; explored preprocessing techniques and RAG concepts.</t>
+  </si>
+  <si>
+    <t>Notes compiled on Kaggle datasets and official fraud alerts.</t>
+  </si>
+  <si>
+    <t>Assisted in organizing initial fraud case records; began drafting notes for documentation.</t>
+  </si>
+  <si>
+    <t>Collected alerts from official sources.</t>
+  </si>
+  <si>
+    <t>Continue dataset documentation; support report drafting.</t>
+  </si>
+  <si>
+    <t>Began collecting academic references on fraud detection; supported dataset categorization.</t>
+  </si>
+  <si>
+    <t>Initial sources gathered for literature review.</t>
+  </si>
+  <si>
+    <t>Expand literature review; refine dataset categories.</t>
+  </si>
+  <si>
+    <t>Supported dataset documentation; maintained records of fraud case sources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Draft notes compiled for reporting.</t>
+  </si>
+  <si>
+    <t>Continue documentation; assist in methodology write‑up.</t>
+  </si>
+  <si>
+    <t>Expanded literature search; organized fraud datasets by category.</t>
+  </si>
+  <si>
+    <t>Sources collected for fraud detection methods.</t>
+  </si>
+  <si>
+    <t>Draft literature review notes; refine dataset categorization.</t>
+  </si>
+  <si>
+    <t>Finalized methodology draft; integrated supervisor feedback; compiled resources; coordinated team progress.</t>
+  </si>
+  <si>
+    <t>Begin editing discussion framework; prepare mid‑sprint summary.</t>
+  </si>
+  <si>
+    <t>Compiled fraud datasets from GitHub/Kaggle for study.</t>
+  </si>
+  <si>
+    <t>Continue dataset exploration; align with backend detection workflow.</t>
+  </si>
+  <si>
+    <t>Summarized fraud case dataset; highlighted patterns for detection analysis.</t>
+  </si>
+  <si>
+    <t>Continue dataset refinement for reporting.</t>
+  </si>
+  <si>
+    <t>Drafted research notes on fraud detection approaches; collected academic references.</t>
+  </si>
+  <si>
+    <t>Edited draft sections; compiled team’s Week 2 outputs into documentation.</t>
+  </si>
+  <si>
+    <t>Draft discussion/conclusion framework.</t>
+  </si>
+  <si>
+    <t>Continued learning phase: explored fraud datasets and preprocessing techniques.</t>
+  </si>
+  <si>
+    <t>Deepen understanding of backend workflows; assist in dataset preparation.</t>
+  </si>
+  <si>
+    <t>Assist in integrating dataset tables into methodology draft.</t>
+  </si>
+  <si>
+    <t>Expanded literature review; synthesized academic references on fraud detection.</t>
+  </si>
+  <si>
+    <t>Added scholarly sources.</t>
+  </si>
+  <si>
+    <t>Drafted discussion framework; ensured examiner alignment; coordinated mid‑sprint summary.</t>
+  </si>
+  <si>
+    <t>Mid‑sprint summary compiled with methodology draft.</t>
+  </si>
+  <si>
+    <t>Continue dataset refinement; align with backend detection framework.</t>
+  </si>
+  <si>
+    <t>Integrated dataset refinements into draft sections; highlighted anomalies and fraud patterns.</t>
+  </si>
+  <si>
+    <t>Fraud anomalies flagged for study.</t>
+  </si>
+  <si>
+    <t>Continue anomaly analysis; prepare contribution to draft discussion.</t>
+  </si>
+  <si>
+    <t>Drafted literature review section; linked fraud detection concepts to academic use cases.</t>
+  </si>
+  <si>
+    <t>Refined discussion draft; edited report for coherence; ensured examiner‑ready formatting.</t>
+  </si>
+  <si>
+    <t>Finalize conclusion draft; oversee integration of all sections.</t>
+  </si>
+  <si>
+    <t>Continue refinement; document backend workflow notes.</t>
+  </si>
+  <si>
+    <t>Completed dataset anomaly analysis; contributed findings to draft sections.</t>
+  </si>
+  <si>
+    <t>Draft updated with anomaly insights.</t>
+  </si>
+  <si>
+    <t>Finalized conclusion draft; coordinated sprint backlog consolidation.</t>
+  </si>
+  <si>
+    <t>Report examiner‑ready with methodology, literature review, and discussion drafts.</t>
   </si>
 </sst>
 </file>
@@ -312,7 +480,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -364,6 +532,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -508,9 +679,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1206500</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>469900</xdr:rowOff>
+          <xdr:colOff>1209675</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>126547</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -575,9 +746,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1212850</xdr:colOff>
+          <xdr:colOff>1209675</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
+          <xdr:rowOff>6803</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -642,7 +813,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1212850</xdr:colOff>
+          <xdr:colOff>1209675</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -709,7 +880,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1212850</xdr:colOff>
+          <xdr:colOff>1209675</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -766,10 +937,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1105,11 +1272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F9" sqref="F9"/>
+      <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1141,27 +1308,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1"/>
-      <c r="E2"/>
-      <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="19"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="19"/>
@@ -1172,56 +1355,70 @@
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="19"/>
       <c r="B5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="19"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="19"/>
@@ -1229,25 +1426,35 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E9" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
@@ -1257,13 +1464,17 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="19"/>
@@ -1271,13 +1482,17 @@
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="19"/>
@@ -1285,36 +1500,271 @@
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E12" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="19"/>
       <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.35">
-      <c r="E20" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="19"/>
+      <c r="B20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="19"/>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="19"/>
+      <c r="B23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
+      <c r="B24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="19"/>
+      <c r="B25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E29" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A21"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D13">
+  <conditionalFormatting sqref="D2:D25">
     <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",D2)))</formula>
     </cfRule>
@@ -1339,7 +1789,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.5" x14ac:dyDescent="0.8"/>
@@ -1351,22 +1801,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="38.5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>34</v>
-      </c>
+      <c r="B2" s="16"/>
       <c r="C2" s="17" t="b">
         <v>0</v>
       </c>
@@ -1375,9 +1823,7 @@
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="B3" s="16"/>
       <c r="C3" s="17" t="b">
         <v>0</v>
       </c>
@@ -1393,7 +1839,7 @@
     </row>
     <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A5" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="17" t="b">
@@ -1429,8 +1875,8 @@
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1206500</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>469900</xdr:rowOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>139700</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -1452,7 +1898,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1212850</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
+                    <xdr:rowOff>19050</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Sprint Backlogs_FYP.xlsx
+++ b/Sprint Backlogs_FYP.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub Clone\Final-Year-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5356028-7F4E-462A-AF6C-6EC8A554405E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37675A80-675C-4D0A-A577-3260866E9B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Oct" sheetId="1" r:id="rId1"/>
+    <sheet name="Oct and Nov" sheetId="1" r:id="rId1"/>
     <sheet name="Task" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -1274,7 +1274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C25" sqref="C25"/>
     </sheetView>
@@ -1788,7 +1788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485EC4C0-1E20-404B-B4B0-85A084D265D4}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Sprint Backlogs_FYP.xlsx
+++ b/Sprint Backlogs_FYP.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub Clone\Final-Year-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37675A80-675C-4D0A-A577-3260866E9B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B0225B-6D84-4739-AB78-973473996D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Oct and Nov" sheetId="1" r:id="rId1"/>
-    <sheet name="Task" sheetId="2" r:id="rId2"/>
+    <sheet name="Oct" sheetId="1" r:id="rId1"/>
+    <sheet name="Nov" sheetId="3" r:id="rId2"/>
+    <sheet name="Task" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>Week</t>
   </si>
@@ -70,9 +71,6 @@
   </si>
   <si>
     <t>Assigned tasks to team members; edited and refined FYP document report (structure, formatting, references). Explored Fraud-R1 GitHub repo; began reading about RAG concepts.</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>Updated report sections with fraud case collection and simulator design; coordinated team progress. https://github.com/kaustpradalab/Fraud-R1</t>
@@ -318,6 +316,9 @@
   </si>
   <si>
     <t>Report examiner‑ready with methodology, literature review, and discussion drafts.</t>
+  </si>
+  <si>
+    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -327,7 +328,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +384,22 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="3"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -480,7 +497,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,11 +547,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -543,7 +562,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -555,6 +574,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -651,19 +690,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,14 +713,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>101600</xdr:rowOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>425450</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
+          <xdr:colOff>1206500</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>126547</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -691,7 +730,7 @@
                   <a14:compatExt spid="_x0000_s2056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -746,9 +785,9 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
+          <xdr:colOff>1212850</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>6803</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -758,7 +797,7 @@
                   <a14:compatExt spid="_x0000_s2063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -813,7 +852,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
+          <xdr:colOff>1212850</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -825,7 +864,7 @@
                   <a14:compatExt spid="_x0000_s2064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -880,7 +919,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>1209675</xdr:colOff>
+          <xdr:colOff>1212850</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
@@ -892,7 +931,7 @@
                   <a14:compatExt spid="_x0000_s2065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -940,16 +979,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A5D7D79-33AA-4FA2-88EA-242FD30CF9E1}" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0" headerRowDxfId="7">
-  <autoFilter ref="A1:C5" xr:uid="{9A5D7D79-33AA-4FA2-88EA-242FD30CF9E1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A5D7D79-33AA-4FA2-88EA-242FD30CF9E1}" name="Table2" displayName="Table2" ref="A1:C9" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:C9" xr:uid="{9A5D7D79-33AA-4FA2-88EA-242FD30CF9E1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7F0C6ED4-605D-4D12-BD85-E3EB18CA8B61}" name="Member" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{DAD6B9FC-6FE3-4B2F-8B21-B7EFCC249229}" name="Task" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{549EB296-17C9-47B9-9472-D03DA3539022}" name="Status" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{7F0C6ED4-605D-4D12-BD85-E3EB18CA8B61}" name="Member" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{DAD6B9FC-6FE3-4B2F-8B21-B7EFCC249229}" name="Task" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{549EB296-17C9-47B9-9472-D03DA3539022}" name="Status" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1272,11 +1311,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C25" sqref="C25"/>
+      <selection pane="topRight" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1309,45 +1348,45 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="19"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="19"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1355,405 +1394,402 @@
         <v>10</v>
       </c>
       <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="19"/>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
-        <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="19"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>63</v>
-      </c>
     </row>
     <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="19"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
+      <c r="A11" s="22"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
+      <c r="A12" s="22"/>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="19"/>
-      <c r="B13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="19"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="19"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="22"/>
+      <c r="B17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="19"/>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="19" t="s">
-        <v>30</v>
+      <c r="A18" s="22" t="s">
+        <v>29</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>83</v>
-      </c>
     </row>
     <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="19"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="19"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="4" t="s">
+    </row>
+    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="22"/>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="D21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="19"/>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="19" t="s">
-        <v>31</v>
+      <c r="A22" s="22" t="s">
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="F22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="19"/>
+      <c r="A23" s="22"/>
       <c r="B23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="19"/>
+      <c r="A24" s="22"/>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="F24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="22"/>
+      <c r="B25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="19"/>
-      <c r="B25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E29" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1765,10 +1801,10 @@
     <mergeCell ref="A18:A21"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D25">
-    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="Completed">
+    <cfRule type="containsText" dxfId="5" priority="1" stopIfTrue="1" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="4" priority="2" stopIfTrue="1" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1785,11 +1821,294 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF5410E-1E63-4115-9A32-2ACB75C80575}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.453125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.7265625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.54296875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.54296875" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="22"/>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="22"/>
+      <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="22"/>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="22"/>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="22"/>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="22"/>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="22"/>
+      <c r="B13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{C165E315-5A84-41AF-AECC-A748736E9E5F}">
+      <formula1>"Completed, In progress"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485EC4C0-1E20-404B-B4B0-85A084D265D4}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="34.5" x14ac:dyDescent="0.8"/>
@@ -1801,10 +2120,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>21</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>3</v>
@@ -1816,7 +2135,7 @@
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.6">
@@ -1825,7 +2144,7 @@
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.6">
@@ -1834,20 +2153,40 @@
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.6">
       <c r="A5" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.8">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C5">
+  <conditionalFormatting sqref="C2:C9">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$C2=TRUE</formula>
     </cfRule>
@@ -1869,14 +2208,14 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>1</xdr:row>
-                    <xdr:rowOff>101600</xdr:rowOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>425450</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1206500</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>139700</xdr:rowOff>
+                    <xdr:rowOff>31750</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>

--- a/Sprint Backlogs_FYP.xlsx
+++ b/Sprint Backlogs_FYP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub Clone\Final-Year-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B0225B-6D84-4739-AB78-973473996D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52F8432-1BD6-419A-96FF-1633198C27C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1315,7 +1315,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D18" sqref="D18"/>
+      <selection pane="topRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1728,7 +1728,7 @@
         <v>87</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>88</v>

--- a/Sprint Backlogs_FYP.xlsx
+++ b/Sprint Backlogs_FYP.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29728"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitHub Clone\Final-Year-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/240253372_stu_vtc_edu_hk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52F8432-1BD6-419A-96FF-1633198C27C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB9FD16-1DD7-4850-9D09-6426AC7FBE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Oct" sheetId="1" r:id="rId1"/>
-    <sheet name="Nov" sheetId="3" r:id="rId2"/>
-    <sheet name="Task" sheetId="2" r:id="rId3"/>
+    <sheet name="Oct. 2025" sheetId="1" r:id="rId1"/>
+    <sheet name="Nov. 2025" sheetId="4" r:id="rId2"/>
+    <sheet name="Dec. 2025" sheetId="5" r:id="rId3"/>
+    <sheet name="Jan. 2026" sheetId="7" r:id="rId4"/>
+    <sheet name="Feb. 2026" sheetId="8" r:id="rId5"/>
+    <sheet name="Task" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="162">
   <si>
     <t>Week</t>
   </si>
@@ -67,13 +70,31 @@
     <t>LIN Yueying</t>
   </si>
   <si>
+    <t>During the project transition phase, no specialized research was conducted; only a preliminary review of official government anti-fraud websites was carried out.</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>[香港警察流动应用程序]：https://www.hkp-app.police.gov.hk/tc/index.html 香港警务处：https://www.police.gov.hk/ppp_tc/</t>
+  </si>
+  <si>
+    <t>Beigin to learn RAG.</t>
+  </si>
+  <si>
     <t>TAN James Anthroi</t>
   </si>
   <si>
     <t>Assigned tasks to team members; edited and refined FYP document report (structure, formatting, references). Explored Fraud-R1 GitHub repo; began reading about RAG concepts.</t>
   </si>
   <si>
+    <t>In progress</t>
+  </si>
+  <si>
     <t>Updated report sections with fraud case collection and simulator design; coordinated team progress. https://github.com/kaustpradalab/Fraud-R1</t>
+  </si>
+  <si>
+    <t>Continue editing methodology and results sections; integrate supervisor feedback; oversee task execution. Continue studying RAG basics.</t>
   </si>
   <si>
     <t>TAN Xiuhao</t>
@@ -85,9 +106,6 @@
 4. Understand the basic principles of RAG.</t>
   </si>
   <si>
-    <t>Completed</t>
-  </si>
-  <si>
     <t>Used sample fraud cases to check simulator functionality. https://www.adcc.gov.hk/zh-cn/alerts.html</t>
   </si>
   <si>
@@ -98,8 +116,436 @@
     <t>Week 2(Oct 19th - Oct 25th)</t>
   </si>
   <si>
-    <t>https://www.kaggle.com/datasets/shivamb/real-or-fake-fake-jobposting-prediction/data
-https://www.kaggle.com/datasets/srisaisuhassanisetty/fake-job-postings</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Learned about LangChain and explored RAG.</t>
+  </si>
+  <si>
+    <t>An Easy-to-Understand Beginner’s Guide to LangChain: From Basics to Building Real-World AI Agents.  https://www.bilibili.com/video/BV1ZDo5YWE7e/?spm_id_from=333.337.search-card.all.click</t>
+  </si>
+  <si>
+    <t>Continue watching helpful RAG videos on Bilibili.</t>
+  </si>
+  <si>
+    <t>Finalized methodology section in FYP report; integrated supervisor feedback; coordinated team progress.</t>
+  </si>
+  <si>
+    <t>Continue editing results and discussion sections; prepare mid-sprint progress summary.</t>
+  </si>
+  <si>
+    <t>Consider whether the project topic should be fraud detection or fraud generation, and whether a questionnaire survey is necessary.</t>
+  </si>
+  <si>
+    <t>As per our work assignments, James and I are responsible for building the fraud detection agent. Next week, I plan to watch the RAG system videos recommended by my mentor on Bilibili.</t>
+  </si>
+  <si>
+    <t>Week 3(Oct 26th - Nov 1th)</t>
+  </si>
+  <si>
+    <t>Summarized fraud case dataset; highlighted patterns for simulator training.</t>
+  </si>
+  <si>
+    <t>Dataset now categorized by type of fraud.</t>
+  </si>
+  <si>
+    <t>Drafted research notes on RAG applications in fraud detection.</t>
+  </si>
+  <si>
+    <t>Collected references on RAG + LLM use cases.</t>
+  </si>
+  <si>
+    <t>Begin exploring LLMs.</t>
+  </si>
+  <si>
+    <t>Edited results section of FYP report; compiled team’s Week 2 outputs into documentation.</t>
+  </si>
+  <si>
+    <t>Updated report with dataset structure and simulator improvements.</t>
+  </si>
+  <si>
+    <t>Draft discussion and conclusion sections; prepare slides for progress presentation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I learned about RAG and LLM by watching Professor Andrew Ng's courses on Bilibili(吴恩达RAG):
+</t>
+  </si>
+  <si>
+    <t>1.The basic principles of RAG systems
+2.The working principle of Retriever and the three mainstream search techniques
+(1)keyword search
+(2)semantic search
+(3)metadata filter
+3.How to evaluate the quality of Retriever in a RAG system
+precision, recall; calculating the final score using a specific formula and two hyperparameters k and β</t>
+  </si>
+  <si>
+    <t>After completing the learning of the RAG system, attempt to build an own RAG system and create a vector database.</t>
+  </si>
+  <si>
+    <t>Week 4(Nov 2th - Nov 8th)</t>
+  </si>
+  <si>
+    <t>Expanded literature review; synthesized academic references on fraud detection.</t>
+  </si>
+  <si>
+    <t>Added scholarly sources.</t>
+  </si>
+  <si>
+    <t>Begin drafting literature review section in FYP report.</t>
+  </si>
+  <si>
+    <t>Drafted discussion framework; ensured examiner alignment; coordinated mid‑sprint summary.</t>
+  </si>
+  <si>
+    <t>Mid‑sprint summary compiled with methodology draft.</t>
+  </si>
+  <si>
+    <t>Refine discussion/conclusion; integrate supervisor feedback.</t>
+  </si>
+  <si>
+    <t>Continue watching last week's video.</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1TJ4zemETf/?spm_id_from=333.337.search-card.all.click&amp;vd_source=78d9a8214992298e4b18e094dba18dab</t>
+  </si>
+  <si>
+    <t>Week 5(Nov 9th - Nov 15th)</t>
+  </si>
+  <si>
+    <t>Drafted literature review section; linked fraud detection concepts to academic use cases.</t>
+  </si>
+  <si>
+    <t>Literature review section ready for supervisor review.</t>
+  </si>
+  <si>
+    <t>Revise literature review based on feedback; assist in discussion drafting.</t>
+  </si>
+  <si>
+    <t>Refined discussion draft; edited report for coherence; ensured examiner‑ready formatting.</t>
+  </si>
+  <si>
+    <t>Report aligned with APA style and examiner expectations.</t>
+  </si>
+  <si>
+    <t>Finalize conclusion draft; oversee integration of all sections.</t>
+  </si>
+  <si>
+    <t>1. Learn how to build an agent
+2. Try to create a simple LLM</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1wc3izUEUb/?spm_id_from=333.1387.favlist.content.click&amp;vd_source=78d9a8214992298e4b18e094dba18dab</t>
+  </si>
+  <si>
+    <t>Week 6(Nov 16th - Nov 22th)</t>
+  </si>
+  <si>
+    <t>Revised literature review; integrated supervisor feedback; polished citations.</t>
+  </si>
+  <si>
+    <t>Literature review finalized with APA references.</t>
+  </si>
+  <si>
+    <t>Support conclusion drafting; prepare oral presentation notes.</t>
+  </si>
+  <si>
+    <t>Finalized conclusion draft; coordinated sprint backlog consolidation.</t>
+  </si>
+  <si>
+    <t>Report examiner‑ready with methodology, literature review, and discussion drafts.</t>
+  </si>
+  <si>
+    <t>Prepare final sprint presentation; oversee submission readiness.</t>
+  </si>
+  <si>
+    <t>1. Still trying to build the agent
+2. Transferred to the information collection part</t>
+  </si>
+  <si>
+    <t>https://github.com/MarkTechStation/VideoCode</t>
+  </si>
+  <si>
+    <t>Week 7(Nov 23th - Nov 29th)</t>
+  </si>
+  <si>
+    <t>Began surveying fraud/RAG resources and governance guidance to prep for later implementation; shared high-level takeaways with team.</t>
+  </si>
+  <si>
+    <t>ADCC fraud alerts: https://www.adcc.gov.hk/en/alerts · HKMA AI governance: https://www.hkma.gov.hk/eng/key-functions/international-financial-centre/fintech/guidelines-on-ai-governance/</t>
+  </si>
+  <si>
+    <t>Expand resource scan to concrete dataset/tool options and outline initial evaluation criteria.</t>
+  </si>
+  <si>
+    <t>1. Reproduce the code from Mark's Tech Workshop regarding RAG and LLM
+2. Successfully implement the bridging experiment between LLM and RAG</t>
+  </si>
+  <si>
+    <t>This project uses lightweight RAG, which makes slicing and recall easy to implement, but the program code lacks structure and has poor editability.</t>
+  </si>
+  <si>
+    <t>A preliminary understanding of the project's direction has been achieved. The plan is to use a Langchain structure to implement the RAG and LLM setup, which will also facilitate future integration into the Agent.</t>
+  </si>
+  <si>
+    <t>Week 8(Nov 30th - Dec 6th)</t>
+  </si>
+  <si>
+    <t>Surveyed fraud/RAG resources and governance guidance; outlined early research plan for dataset and tooling evaluation.</t>
+  </si>
+  <si>
+    <t>Shortlist datasets and RAG toooling for deeper review; draft comparison criteria.</t>
+  </si>
+  <si>
+    <t>1. Learn how to build the Langchain framework
+2. The overall project backend program tasks are divided into: Data Acquisition --&gt; Vector Storage --&gt; RAG Recall --&gt; LLM Response</t>
+  </si>
+  <si>
+    <t>1. Data Acquisition
+2. Web Crawler</t>
+  </si>
+  <si>
+    <t>Week 9(Dec 7th - Dec 13th)</t>
+  </si>
+  <si>
+    <t>Reviewed HTML parsing techniques for scraping and privacy compliance references to guide data handling.</t>
+  </si>
+  <si>
+    <t>Mitchell (2024) HTML parsing: https://doi.org/10.13052/jwe1540-9589.2324 · PCPD privacy ordinance guidance: https://www.pcpd.org.hk/en/resources_centre/publications.html</t>
+  </si>
+  <si>
+    <t>(unchanged)</t>
+  </si>
+  <si>
+    <t>1. Obtain HK01 news data using web scraping.</t>
+  </si>
+  <si>
+    <t>This type of frequently updated website uses JavaScript dynamic rendering, which prevents direct scraping. Furthermore, it displays only a few articles at a time; more news needs to be obtained by simulating click times.</t>
+  </si>
+  <si>
+    <t>Fortunately, the website provides an API mode. I can access the API to obtain a JSON file containing the URL of each news article, and I can set an offset parameter to loop through the articles.</t>
+  </si>
+  <si>
+    <t>Week 10(Dec 14th - Dec 20th)</t>
+  </si>
+  <si>
+    <t>Researched datasets/tools (ChiFraud, fraud reports) and RAG patterns; assisted Tan Xiuhao on web scraping approach; shared notes.</t>
+  </si>
+  <si>
+    <t>ChiFraud dataset: https://github.com/xuemingxxx/, ChiFraudRAG workflow image: https://github.com/mrdbourke/simple-local-rag/blob/main/images/simple-local-rag-workflow-flowchart.png, ADCC fraud alerts: https://www.adcc.gov.hk/en/alerts</t>
+  </si>
+  <si>
+    <t>Prioritize dataset ingestion plan and propose initial labeling.</t>
+  </si>
+  <si>
+    <t>1. Write web crawler code to scrape news articles about the latest scams from HK01's scam section.
+2. Data preprocessing and cleaning.</t>
+  </si>
+  <si>
+    <t>HK01's dataset is not large, but it is usually updated daily. This frequent update will ensure the data's timeliness.</t>
+  </si>
+  <si>
+    <t>The crawler program is not yet perfect; time information for each news article will be added later for easier analysis.</t>
+  </si>
+  <si>
+    <t>Week 11(Dec 21th - Dec 27th)</t>
+  </si>
+  <si>
+    <t>Researched MCP direction and Android ecosystem fit; gathered fraud/policy references to guide future work.</t>
+  </si>
+  <si>
+    <t>1. Optimize the crawler code to add the publication time to each news article.
+2. Download anonymized fraud cases from Alibaba Cloud Tianchi to test recall rate.</t>
+  </si>
+  <si>
+    <t>Data downloaded from Alibaba Cloud is not valuable because the dataset is outdated and cannot effectively identify the latest fraud methods.</t>
+  </si>
+  <si>
+    <t>1. Continue collecting data online.
+2. Obtain relevant information from websites such as ADCC and the Hong Kong Monetary Authority.</t>
+  </si>
+  <si>
+    <t>Week 12(Dec 28th - Jan 3rd)</t>
+  </si>
+  <si>
+    <t>Learn web scraping techniques and attempt to extract data from target web pages</t>
+  </si>
+  <si>
+    <t>Focused on MCP integration paths and accessibility requirements for future UI; continued collecting fraud data sources.</t>
+  </si>
+  <si>
+    <t>Apple iOS accessibility guide: https://developer.apple.com/documentation/uikit/accessibility · MCP spec v0.3: https://modelcontextprotocol.io/specification</t>
+  </si>
+  <si>
+    <t>Start web scraping trials on target pages; document parsing steps.</t>
+  </si>
+  <si>
+    <t>1. Use a similar method to crawl anti-fraud reports from ADCC .
+2. Compare the quality of the collected data.</t>
+  </si>
+  <si>
+    <t>The ADCC webpage structure is complex and requires optimization for future use. For now, we'll use HK01 as the test sample.</t>
+  </si>
+  <si>
+    <t>1. Build a Chroma vector database
+2. Select an embedding model
+3. Transcode, slice, vectorize, and store the crawled HK01 news articles.</t>
+  </si>
+  <si>
+    <t>Week 13(Jan 4th - Jan 10th)</t>
+  </si>
+  <si>
+    <t>Attempt to scrape and extract data from ADCC/HK01 target web pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Learn mobile web page development </t>
+  </si>
+  <si>
+    <t>ChiFraud dataset: https://github.com/xuemingxxx/ChiFraud · RAG workflow image: https://github.com/mrdbourke/simple-local-rag/blob/main/images/simple-local-rag-workflow-flowchart.png · ADCC fraud alerts: https://www.adcc.gov.hk/en/alerts</t>
+  </si>
+  <si>
+    <t>Package scraping learnings; prepare inputs for mobile web page work.</t>
+  </si>
+  <si>
+    <t>1. Select an embedding model
+2. Build a vector database using HK01 news articles</t>
+  </si>
+  <si>
+    <t>main.ipynb</t>
+  </si>
+  <si>
+    <t>1. Deploy the LLM
+2. Provide the LLM with the content returned based on the issue
+3. Test the LLM's response</t>
+  </si>
+  <si>
+    <t>Week 14(Jan 11th - Jan 17th)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Watch web design-related videos on Bilibili and learn mobile web page development methods</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1bb411F79A/?spm_id_from=333.337.search-card.all.click</t>
+  </si>
+  <si>
+    <t>Try to complete the initial build of the mobile web page</t>
+  </si>
+  <si>
+    <t>Deep-dived Fraud R1 repo; proposed label change to “Fraud / Possible fraud / Not fraud”; continued literature/benchmark review.</t>
+  </si>
+  <si>
+    <t>Fraud R1 repo: https://github.com/kaustpradalab/Fraud-R1 · ChiFraud dataset: https://github.com/xuemingxxx/ChiFraud · RAG workflow image: https://github.com/mrdbourke/simple-local-rag/blob/main/images/simple-local-rag-workflow-flowchart.png</t>
+  </si>
+  <si>
+    <t>Align labeling scheme with backend data pipeline; draft evaluation checklist.</t>
+  </si>
+  <si>
+    <t>1. Select an LLM model and design prompts.
+2. Build RAG and LLM using the Langchain framework.
+3. Test the overall project performance and optimize the code.</t>
+  </si>
+  <si>
+    <t>1. Incorporate the original LLM to compare the different performances of the two (RAG+LLM and the original LLM) in identical scenarios.  
+2. Collect several test-specific scenario cases for evaluation.</t>
+  </si>
+  <si>
+    <t>Week 15(Jan 18th - Jan 24th)</t>
+  </si>
+  <si>
+    <t>Build a web page with basic functions, currently only supporting fraud judgment via text input</t>
+  </si>
+  <si>
+    <t>index.html</t>
+  </si>
+  <si>
+    <t>Learn about the AI Agent AutoGLM</t>
+  </si>
+  <si>
+    <t>Watched LLM/RAG resources; reviewed scam/AI policy materials; relayed implications for backend (LangChain) alignment.</t>
+  </si>
+  <si>
+    <t>YouTube: https://www.youtube.com/watch?v=sVcwVQRHIc8&amp;t=9s · HK Police/ADCC mid-year scam brief 2025: https://www.police.gov.hk/ppp_en/03_police_message/pr/press-release-detail.html?refno=P202506130003 · HKMA AI governance: https://www.hkma.gov.hk/eng/key-functions/international-financial-centre/fintech/guidelines-on-ai-governance/</t>
+  </si>
+  <si>
+    <t>Draft test cases for RAG vs. baseline LLM; note compliance checkpoints.</t>
+  </si>
+  <si>
+    <t>1. Test the judgment capabilities of RAG + LLM and native LLM in the same scenario.
+2. Test the project performance using different single samples.</t>
+  </si>
+  <si>
+    <t>Write a script to automatically crawl news every day</t>
+  </si>
+  <si>
+    <t>Week 16(Jan 25th - Jan 31th)</t>
+  </si>
+  <si>
+    <t>Watch videos to further learn about AI Agent-related information</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1ZzvUBXEoL/?spm_id_from=333.337.search-card.all.click</t>
+  </si>
+  <si>
+    <t>Keep learning of the relative AI Agent</t>
+  </si>
+  <si>
+    <t>Assisted Tan Xiuhao with scraping (HK01/ADCC); evaluated MCP fit post-interim; noted LangChain integration hurdles; reinforced HTML parsing and privacy compliance considerations.</t>
+  </si>
+  <si>
+    <t>YouTube short: https://www.youtube.com/shorts/xS55duPS-Pw · ADCC fraud alerts: https://www.adcc.gov.hk/en/alerts · MCP spec v0.3: https://modelcontextprotocol.io/specification · Mitchell (2024) HTML parsing: https://doi.org/10.13052/jwe1540-9589.2324 · PCPD privacy guidance: https://www.pcpd.org.hk/en/resources_centre/publications.html</t>
+  </si>
+  <si>
+    <t>Plan integration workaround options for LangChain backend; prepare interim findings for presentation.</t>
+  </si>
+  <si>
+    <t>1. Implement a script to crawl the latest HK01 news daily.   2. Implement the insertion of new data into an existing database.</t>
+  </si>
+  <si>
+    <t>Daily_database_update_script.ipynb</t>
+  </si>
+  <si>
+    <t>1. Integrate the code
+2. prepare for the presentation.</t>
+  </si>
+  <si>
+    <t>Week 17(Feb 1st - Feb 7th)</t>
+  </si>
+  <si>
+    <t>Gather and organize materials required for the mid-term presentation, and create the PowerPoint.</t>
+  </si>
+  <si>
+    <t>https://www.canva.com/design/DAHAbvki8TY/-ykAJBv77-VX60O_3AZhSA/edit?utm_content=DAHAbvki8TY&amp;utm_campaign=designshare&amp;utm_medium=link2&amp;utm_source=sharebutton</t>
+  </si>
+  <si>
+    <t>Formulate a targeted plan based on feedback from the supervisor after the Interim Report.</t>
+  </si>
+  <si>
+    <t>Completed the Interim Project Report; built a front-end concept (backend linkage deferred due to LangChain integration issues); consolidated findings (datasets, policy, MCP, label change) and updated team.</t>
+  </si>
+  <si>
+    <t>Fraud R1 repo: https://github.com/kaustpradalab/Fraud-R1 · HK Police/ADCC mid-year scam brief 2025: https://www.police.gov.hk/ppp_en/03_police_message/pr/press-release-detail.html?refno=P202506130003 · MCP spec v0.3: https://modelcontextprotocol.io/specification</t>
+  </si>
+  <si>
+    <t>Formulate a targeted plan based on supervisor feedback post-Interim; reattempt frontend-backend linkage with clearer LangChain integration steps.</t>
+  </si>
+  <si>
+    <t>1. Organize the code and upload the completed code version for the mid-term task.
+2. Participate in the creation of the mid-term presentation PPT.</t>
+  </si>
+  <si>
+    <t>I will refine the project based on the feedback from the mid-term presentation, and adjust the parameters to bring the project to its optimal state.</t>
+  </si>
+  <si>
+    <t>Week 18(Feb 8th - Feb 14th)</t>
+  </si>
+  <si>
+    <t>Mid-term project presentation</t>
+  </si>
+  <si>
+    <t>Week 19(Feb 15th - Feb 21th)</t>
+  </si>
+  <si>
+    <t>Week 20(Feb 22th - Feb 28th)</t>
   </si>
   <si>
     <t>Member</t>
@@ -108,217 +554,10 @@
     <t>Task</t>
   </si>
   <si>
-    <t xml:space="preserve"> Continue editing methodology/results; integrate supervisor feedback; oversee team execution; deepen RAG study.</t>
-  </si>
-  <si>
-    <t>Strengthened methodology with academic references.</t>
-  </si>
-  <si>
-    <t>Week 3(Oct 26th - Nov 1st)</t>
-  </si>
-  <si>
-    <t>Expand literature review; integrate into report.</t>
-  </si>
-  <si>
-    <t>Collected academic sources on RAG + LLM use cases.</t>
-  </si>
-  <si>
-    <t>Dataset categorized by fraud type.</t>
-  </si>
-  <si>
-    <t>Consolidated team contributions into report.</t>
-  </si>
-  <si>
-    <t>Week 4(Nov 2nd - Nov 8th)</t>
-  </si>
-  <si>
-    <t>Week 5(Nov 9th - Nov 15th)</t>
-  </si>
-  <si>
-    <t>Week 6(Nov 16th - Nov 22nd)</t>
-  </si>
-  <si>
-    <t>Begin drafting literature review section in FYP report.</t>
-  </si>
-  <si>
-    <t>Refine discussion/conclusion; integrate supervisor feedback.</t>
-  </si>
-  <si>
-    <t>Fraud datasets cleaned and structured for analysis.</t>
-  </si>
-  <si>
-    <t>Explored fraud datasets (Kaggle, official alerts); validated preprocessing pipeline for detection tasks.</t>
-  </si>
-  <si>
-    <t>Refined fraud dataset summaries; prepared draft tables for report inclusion.</t>
-  </si>
-  <si>
-    <t>Dataset tables categorized by fraud type.</t>
-  </si>
-  <si>
-    <t>Literature review section ready for supervisor review.</t>
-  </si>
-  <si>
-    <t>Revise literature review based on feedback; assist in discussion drafting.</t>
-  </si>
-  <si>
-    <t>Report aligned with APA style and examiner expectations.</t>
-  </si>
-  <si>
-    <t>Enhanced dataset exploration; improved preprocessing pipeline for fraud detection tasks.</t>
-  </si>
-  <si>
-    <t>Fraud detection pipeline outputs more consistent results.</t>
-  </si>
-  <si>
-    <t>Assist in preparing final sprint summary.</t>
-  </si>
-  <si>
-    <t>Revised literature review; integrated supervisor feedback; polished citations.</t>
-  </si>
-  <si>
-    <t>Literature review finalized with APA references.</t>
-  </si>
-  <si>
-    <t>Support conclusion drafting; prepare oral presentation notes.</t>
-  </si>
-  <si>
-    <t>Prepare final sprint presentation; oversee submission readiness.</t>
-  </si>
-  <si>
-    <t>Deepen understanding of RAG integration; assist in preparing learning notes for team.</t>
-  </si>
-  <si>
-    <t>Notes compiled on dataset structures and RAG learning resources.</t>
-  </si>
-  <si>
-    <t>Continued studying fraud detection datasets; explored preprocessing techniques and RAG concepts.</t>
-  </si>
-  <si>
-    <t>Notes compiled on Kaggle datasets and official fraud alerts.</t>
-  </si>
-  <si>
-    <t>Assisted in organizing initial fraud case records; began drafting notes for documentation.</t>
-  </si>
-  <si>
-    <t>Collected alerts from official sources.</t>
-  </si>
-  <si>
-    <t>Continue dataset documentation; support report drafting.</t>
-  </si>
-  <si>
-    <t>Began collecting academic references on fraud detection; supported dataset categorization.</t>
-  </si>
-  <si>
-    <t>Initial sources gathered for literature review.</t>
-  </si>
-  <si>
-    <t>Expand literature review; refine dataset categories.</t>
-  </si>
-  <si>
-    <t>Supported dataset documentation; maintained records of fraud case sources.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Draft notes compiled for reporting.</t>
-  </si>
-  <si>
-    <t>Continue documentation; assist in methodology write‑up.</t>
-  </si>
-  <si>
-    <t>Expanded literature search; organized fraud datasets by category.</t>
-  </si>
-  <si>
-    <t>Sources collected for fraud detection methods.</t>
-  </si>
-  <si>
-    <t>Draft literature review notes; refine dataset categorization.</t>
-  </si>
-  <si>
-    <t>Finalized methodology draft; integrated supervisor feedback; compiled resources; coordinated team progress.</t>
-  </si>
-  <si>
-    <t>Begin editing discussion framework; prepare mid‑sprint summary.</t>
-  </si>
-  <si>
-    <t>Compiled fraud datasets from GitHub/Kaggle for study.</t>
-  </si>
-  <si>
-    <t>Continue dataset exploration; align with backend detection workflow.</t>
-  </si>
-  <si>
-    <t>Summarized fraud case dataset; highlighted patterns for detection analysis.</t>
-  </si>
-  <si>
-    <t>Continue dataset refinement for reporting.</t>
-  </si>
-  <si>
-    <t>Drafted research notes on fraud detection approaches; collected academic references.</t>
-  </si>
-  <si>
-    <t>Edited draft sections; compiled team’s Week 2 outputs into documentation.</t>
-  </si>
-  <si>
-    <t>Draft discussion/conclusion framework.</t>
-  </si>
-  <si>
-    <t>Continued learning phase: explored fraud datasets and preprocessing techniques.</t>
-  </si>
-  <si>
-    <t>Deepen understanding of backend workflows; assist in dataset preparation.</t>
-  </si>
-  <si>
-    <t>Assist in integrating dataset tables into methodology draft.</t>
-  </si>
-  <si>
-    <t>Expanded literature review; synthesized academic references on fraud detection.</t>
-  </si>
-  <si>
-    <t>Added scholarly sources.</t>
-  </si>
-  <si>
-    <t>Drafted discussion framework; ensured examiner alignment; coordinated mid‑sprint summary.</t>
-  </si>
-  <si>
-    <t>Mid‑sprint summary compiled with methodology draft.</t>
-  </si>
-  <si>
-    <t>Continue dataset refinement; align with backend detection framework.</t>
-  </si>
-  <si>
-    <t>Integrated dataset refinements into draft sections; highlighted anomalies and fraud patterns.</t>
-  </si>
-  <si>
-    <t>Fraud anomalies flagged for study.</t>
-  </si>
-  <si>
-    <t>Continue anomaly analysis; prepare contribution to draft discussion.</t>
-  </si>
-  <si>
-    <t>Drafted literature review section; linked fraud detection concepts to academic use cases.</t>
-  </si>
-  <si>
-    <t>Refined discussion draft; edited report for coherence; ensured examiner‑ready formatting.</t>
-  </si>
-  <si>
-    <t>Finalize conclusion draft; oversee integration of all sections.</t>
-  </si>
-  <si>
-    <t>Continue refinement; document backend workflow notes.</t>
-  </si>
-  <si>
-    <t>Completed dataset anomaly analysis; contributed findings to draft sections.</t>
-  </si>
-  <si>
-    <t>Draft updated with anomaly insights.</t>
-  </si>
-  <si>
-    <t>Finalized conclusion draft; coordinated sprint backlog consolidation.</t>
-  </si>
-  <si>
-    <t>Report examiner‑ready with methodology, literature review, and discussion drafts.</t>
-  </si>
-  <si>
-    <t>In progress</t>
+    <t>Organized collected fraud cases into structured dataset for simulator testing.</t>
+  </si>
+  <si>
+    <t>Notes from Fraud-R1 repo and online resources.</t>
   </si>
 </sst>
 </file>
@@ -328,7 +567,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,23 +628,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
-      <color theme="3"/>
-      <name val="Aptos Display"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
+      <sz val="24"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,8 +654,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -490,6 +732,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -497,7 +843,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -547,13 +893,83 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -562,7 +978,60 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="16">
+    <dxf>
+      <numFmt numFmtId="164" formatCode=";;;"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="20"/>
+        <color theme="3"/>
+        <name val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="26"/>
+        <color theme="3"/>
+        <name val="Aptos Display"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -618,57 +1087,64 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode=";;;"/>
+      <font>
+        <color theme="1"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0"/>
+          <bgColor theme="5" tint="0.39997558519241921"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FF006100"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="20"/>
-        <color theme="3"/>
-        <name val="Aptos Display"/>
-        <family val="2"/>
-        <scheme val="major"/>
+        <color theme="1"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="26"/>
-        <color theme="3"/>
-        <name val="Aptos Display"/>
-        <family val="2"/>
-        <scheme val="major"/>
+        <color rgb="FF006100"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -690,19 +1166,19 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$2" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$3" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$4" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$C$5" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -713,14 +1189,14 @@
         <xdr:from>
           <xdr:col>2</xdr:col>
           <xdr:colOff>457200</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>425450</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>101600</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
           <xdr:colOff>1206500</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>31750</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>469900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -730,7 +1206,7 @@
                   <a14:compatExt spid="_x0000_s2056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008080000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -787,7 +1263,7 @@
           <xdr:col>2</xdr:col>
           <xdr:colOff>1212850</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -797,7 +1273,7 @@
                   <a14:compatExt spid="_x0000_s2063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4ADE2B21-62AF-4205-8C51-6A89F4536DDC}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -864,7 +1340,7 @@
                   <a14:compatExt spid="_x0000_s2064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{671B6C3E-4892-4DC2-A904-72A957265756}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -931,7 +1407,7 @@
                   <a14:compatExt spid="_x0000_s2065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011080000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9709611C-DE8D-4762-BCBF-41D2332D3EA9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -979,16 +1455,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A5D7D79-33AA-4FA2-88EA-242FD30CF9E1}" name="Table2" displayName="Table2" ref="A1:C9" totalsRowShown="0" headerRowDxfId="9">
-  <autoFilter ref="A1:C9" xr:uid="{9A5D7D79-33AA-4FA2-88EA-242FD30CF9E1}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9A5D7D79-33AA-4FA2-88EA-242FD30CF9E1}" name="Table2" displayName="Table2" ref="A1:C5" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:C5" xr:uid="{9A5D7D79-33AA-4FA2-88EA-242FD30CF9E1}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7F0C6ED4-605D-4D12-BD85-E3EB18CA8B61}" name="Member" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{DAD6B9FC-6FE3-4B2F-8B21-B7EFCC249229}" name="Task" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{549EB296-17C9-47B9-9472-D03DA3539022}" name="Status" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{7F0C6ED4-605D-4D12-BD85-E3EB18CA8B61}" name="Member" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{DAD6B9FC-6FE3-4B2F-8B21-B7EFCC249229}" name="Task" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{549EB296-17C9-47B9-9472-D03DA3539022}" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -1311,23 +1787,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.54296875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1347,464 +1823,216 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:6" ht="15">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1"/>
+      <c r="E2"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="46.5">
+      <c r="A3" s="27"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.95">
+      <c r="A4" s="27"/>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="105.75" customHeight="1">
+      <c r="A5" s="27"/>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="105.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>17</v>
+    <row r="6" spans="1:6">
+      <c r="A6" s="27" t="s">
+        <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+        <v>23</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="57.75">
+      <c r="A7" s="27"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>61</v>
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.25">
+      <c r="A8" s="27"/>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="57.75">
+      <c r="A9" s="27"/>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>18</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E9" s="18"/>
       <c r="F9" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>23</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="29.1">
+      <c r="A10" s="27" t="s">
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+        <v>33</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="29.25">
+      <c r="A11" s="27"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="29.25">
+      <c r="A12" s="27"/>
       <c r="B12" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="130.5">
+      <c r="A13" s="27"/>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="22"/>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="22"/>
-      <c r="B16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="22"/>
-      <c r="B17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="22"/>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="22"/>
-      <c r="B20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A21" s="22"/>
-      <c r="B21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F22" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="22"/>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A24" s="22"/>
-      <c r="B24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A25" s="22"/>
-      <c r="B25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>47</v>
-      </c>
+    <row r="20" spans="5:5">
+      <c r="E20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A22:A25"/>
+  <mergeCells count="3">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A21"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D25">
-    <cfRule type="containsText" dxfId="5" priority="1" stopIfTrue="1" operator="containsText" text="Completed">
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="containsText" dxfId="15" priority="1" stopIfTrue="1" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" stopIfTrue="1" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="14" priority="2" stopIfTrue="1" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1814,31 +2042,31 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" display="https://www.kaggle.com/datasets/shivamb/real-or-fake-fake-jobposting-prediction/data" xr:uid="{7925D7D9-4600-4239-9CDD-E52341D1A277}"/>
+    <hyperlink ref="E7" r:id="rId1" display="https://www.bilibili.com/video/BV1ZDo5YWE7e/?spm_id_from=333.337.search-card.all.click" xr:uid="{20D7A168-9814-472F-BE4E-E71A5CB54099}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF5410E-1E63-4115-9A32-2ACB75C80575}">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C09BA8-D615-470C-9FD6-F9568EC16F6E}">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="50.54296875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.54296875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1858,244 +2086,532 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="22" t="s">
-        <v>28</v>
+    <row r="2" spans="1:6">
+      <c r="A2" s="27" t="s">
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1"/>
+      <c r="E2"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="29.25">
+      <c r="A3" s="27"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="22"/>
+      <c r="C3" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30.75">
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="22"/>
+        <v>47</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57.75">
+      <c r="A5" s="27"/>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
-        <v>29</v>
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="27" t="s">
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="22"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" ht="29.25">
+      <c r="A7" s="27"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>83</v>
+      <c r="C7" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.75">
+      <c r="A8" s="27"/>
       <c r="B8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>84</v>
+        <v>13</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.5">
+      <c r="A9" s="27"/>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="22"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" ht="29.25">
+      <c r="A11" s="27"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>43</v>
+      <c r="C11" s="40" t="s">
+        <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30.75">
+      <c r="A12" s="27"/>
       <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>89</v>
+        <v>13</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="22"/>
+        <v>10</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="29.25">
+      <c r="A13" s="27"/>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="27"/>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="26"/>
+    </row>
+    <row r="16" spans="1:6" ht="57.75">
+      <c r="A16" s="27"/>
+      <c r="B16" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="57.75">
+      <c r="A17" s="27"/>
+      <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.45">
+      <c r="E20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A17"/>
   </mergeCells>
-  <conditionalFormatting sqref="D2:D13">
-    <cfRule type="containsText" dxfId="3" priority="1" stopIfTrue="1" operator="containsText" text="Completed">
+  <conditionalFormatting sqref="D2:D17">
+    <cfRule type="containsText" dxfId="13" priority="1" stopIfTrue="1" operator="containsText" text="Completed">
       <formula>NOT(ISERROR(SEARCH("Completed",D2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="In Progress">
+    <cfRule type="containsText" dxfId="12" priority="2" stopIfTrue="1" operator="containsText" text="In Progress">
       <formula>NOT(ISERROR(SEARCH("In Progress",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{C165E315-5A84-41AF-AECC-A748736E9E5F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{7BD7FFBF-985C-424C-901E-50B1D35393BD}">
+      <formula1>"Completed, In progress"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{AFE8FB73-9408-4A11-A63C-21E058F92F12}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{ECB98DDE-CB02-47A5-9685-F4BF0CEBC9D2}"/>
+    <hyperlink ref="E13" r:id="rId3" xr:uid="{673D76DD-3132-4B6C-B32A-9251AA9B05B0}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E113B35E-2931-4CEF-BA34-BEDAE5DB7915}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.5703125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A2" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="57.75">
+      <c r="A3" s="29"/>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.75">
+      <c r="A4" s="30"/>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A5" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" ht="57.75">
+      <c r="A6" s="29"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="57.75">
+      <c r="A7" s="30"/>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A8" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" ht="72.75">
+      <c r="A9" s="29"/>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.5">
+      <c r="A10" s="30"/>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A11" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" ht="29.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" ht="57.75">
+      <c r="A13" s="30"/>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D2:D13">
+    <cfRule type="containsText" dxfId="11" priority="1" stopIfTrue="1" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" stopIfTrue="1" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{E477B6FA-8C0E-4A40-B3E7-238B64BE119A}">
       <formula1>"Completed, In progress"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2103,94 +2619,638 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485EC4C0-1E20-404B-B4B0-85A084D265D4}">
-  <dimension ref="A1:C9"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6408D205-5968-4F56-AE81-AD1AEC83C358}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="34.5" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A2" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.75">
+      <c r="A3" s="29"/>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.75">
+      <c r="A4" s="30"/>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A5" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="72.75">
+      <c r="A6" s="29"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="57.75">
+      <c r="A7" s="30"/>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A8" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="72.75">
+      <c r="A9" s="29"/>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="72.75">
+      <c r="A10" s="30"/>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A11" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="101.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="57.75">
+      <c r="A13" s="30"/>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="29.25">
+      <c r="A14" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="101.25">
+      <c r="A15" s="29"/>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.5">
+      <c r="A16" s="30"/>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D2:D16">
+    <cfRule type="containsText" dxfId="9" priority="1" stopIfTrue="1" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="2" stopIfTrue="1" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{162617D4-C975-4766-A711-23FEE1E9A7B9}">
+      <formula1>"Completed, In progress"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{9C645B80-8C39-4217-ABFF-FDD3E3A5085D}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{4D5865C4-B375-40C3-A7C3-F07923CD3B2E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C42ACE20-5FCD-4291-8464-2BAB82886E6D}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H6" sqref="H6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="50.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="50.5703125" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A2" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="72.75">
+      <c r="A3" s="29"/>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="64.5" customHeight="1">
+      <c r="A4" s="30"/>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A5" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="29"/>
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="30"/>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="39"/>
+    </row>
+    <row r="8" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A8" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="29"/>
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="30"/>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="29.25" customHeight="1">
+      <c r="A11" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="29"/>
+      <c r="B12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="30"/>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="E16" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C5:F7"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D2:D4 D8:D13">
+    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",D2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="In Progress">
+      <formula>NOT(ISERROR(SEARCH("In Progress",D2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4 D8:D1048576" xr:uid="{D0777549-379D-4638-81AA-53F485DEABA6}">
+      <formula1>"Completed, In progress"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{DBF8FF4C-DA24-4DCE-BDDF-AEFC20E34147}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485EC4C0-1E20-404B-B4B0-85A084D265D4}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="34.5"/>
+  <cols>
+    <col min="1" max="1" width="30.28515625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>20</v>
+        <v>159</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" ht="38.450000000000003">
       <c r="A2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="16" t="s">
+        <v>160</v>
+      </c>
       <c r="C2" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="26" x14ac:dyDescent="0.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="26.25">
       <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="C3" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="26" x14ac:dyDescent="0.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="26.1">
       <c r="A4" s="14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="26" x14ac:dyDescent="0.6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26.1">
       <c r="A5" s="14" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="17" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="21"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="21"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.8">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="21"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C9">
-    <cfRule type="expression" dxfId="1" priority="3">
+  <conditionalFormatting sqref="C2:C5">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$C2=TRUE</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C2=FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2208,14 +3268,14 @@
                   <from>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>457200</xdr:colOff>
-                    <xdr:row>0</xdr:row>
-                    <xdr:rowOff>425450</xdr:rowOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>101600</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1206500</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>31750</xdr:rowOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>469900</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2237,7 +3297,7 @@
                     <xdr:col>2</xdr:col>
                     <xdr:colOff>1212850</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>19050</xdr:rowOff>
+                    <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
